--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H2">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I2">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J2">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>884.2799703849478</v>
+        <v>1639.97448389095</v>
       </c>
       <c r="R2">
-        <v>7958.519733464531</v>
+        <v>14759.77035501855</v>
       </c>
       <c r="S2">
-        <v>0.04285434122243519</v>
+        <v>0.07199750657640291</v>
       </c>
       <c r="T2">
-        <v>0.04285434122243517</v>
+        <v>0.0719975065764029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H3">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I3">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J3">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
-        <v>1279.257133553856</v>
+        <v>1883.418041817322</v>
       </c>
       <c r="R3">
-        <v>11513.3142019847</v>
+        <v>16950.7623763559</v>
       </c>
       <c r="S3">
-        <v>0.06199588766970046</v>
+        <v>0.0826850686909074</v>
       </c>
       <c r="T3">
-        <v>0.06199588766970045</v>
+        <v>0.08268506869090737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H4">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I4">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J4">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>153.639578319858</v>
+        <v>284.6120765820195</v>
       </c>
       <c r="R4">
-        <v>1382.756204878722</v>
+        <v>2561.508689238176</v>
       </c>
       <c r="S4">
-        <v>0.007445744713321987</v>
+        <v>0.01249492602276379</v>
       </c>
       <c r="T4">
-        <v>0.007445744713321985</v>
+        <v>0.01249492602276379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H5">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I5">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J5">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>125.793123633792</v>
+        <v>201.5859842521622</v>
       </c>
       <c r="R5">
-        <v>1132.138112704128</v>
+        <v>1814.27385826946</v>
       </c>
       <c r="S5">
-        <v>0.006096238322905543</v>
+        <v>0.008849947587276481</v>
       </c>
       <c r="T5">
-        <v>0.006096238322905541</v>
+        <v>0.008849947587276481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H6">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I6">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J6">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>173.194895517471</v>
+        <v>163.3050198646781</v>
       </c>
       <c r="R6">
-        <v>1558.754059657239</v>
+        <v>1469.745178782103</v>
       </c>
       <c r="S6">
-        <v>0.008393442573689274</v>
+        <v>0.007169351936361342</v>
       </c>
       <c r="T6">
-        <v>0.008393442573689272</v>
+        <v>0.00716935193636134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.538463</v>
       </c>
       <c r="I7">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J7">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>5372.772256625861</v>
+        <v>6767.945548540022</v>
       </c>
       <c r="R7">
-        <v>48354.95030963275</v>
+        <v>60911.50993686021</v>
       </c>
       <c r="S7">
-        <v>0.2603775086024463</v>
+        <v>0.2971236497434118</v>
       </c>
       <c r="T7">
-        <v>0.2603775086024462</v>
+        <v>0.2971236497434118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.538463</v>
       </c>
       <c r="I8">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J8">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
         <v>7772.603096796181</v>
@@ -948,10 +948,10 @@
         <v>69953.42787116564</v>
       </c>
       <c r="S8">
-        <v>0.3766791021531994</v>
+        <v>0.3412297252635572</v>
       </c>
       <c r="T8">
-        <v>0.3766791021531994</v>
+        <v>0.3412297252635571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.538463</v>
       </c>
       <c r="I9">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J9">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>933.4944718438918</v>
+        <v>1174.554272450556</v>
       </c>
       <c r="R9">
-        <v>8401.450246595026</v>
+        <v>10570.98845205501</v>
       </c>
       <c r="S9">
-        <v>0.04523939472273723</v>
+        <v>0.05156481383445978</v>
       </c>
       <c r="T9">
-        <v>0.04523939472273723</v>
+        <v>0.05156481383445977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>186.538463</v>
       </c>
       <c r="I10">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J10">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>764.3029666721137</v>
+        <v>831.9171902787978</v>
       </c>
       <c r="R10">
-        <v>6878.726700049024</v>
+        <v>7487.254712509181</v>
       </c>
       <c r="S10">
-        <v>0.03703996610578866</v>
+        <v>0.03652249712813408</v>
       </c>
       <c r="T10">
-        <v>0.03703996610578865</v>
+        <v>0.03652249712813407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.538463</v>
       </c>
       <c r="I11">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J11">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>1052.310083672254</v>
+        <v>673.9369990837499</v>
       </c>
       <c r="R11">
-        <v>9470.790753050287</v>
+        <v>6065.43299175375</v>
       </c>
       <c r="S11">
-        <v>0.05099748598610541</v>
+        <v>0.02958691369910363</v>
       </c>
       <c r="T11">
-        <v>0.05099748598610541</v>
+        <v>0.02958691369910362</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H12">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I12">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J12">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>35.91417068797156</v>
+        <v>255.4905620365987</v>
       </c>
       <c r="R12">
-        <v>323.227536191744</v>
+        <v>2299.415058329388</v>
       </c>
       <c r="S12">
-        <v>0.001740487376088724</v>
+        <v>0.01121644489053041</v>
       </c>
       <c r="T12">
-        <v>0.001740487376088724</v>
+        <v>0.01121644489053041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H13">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I13">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J13">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>51.95578389981867</v>
+        <v>293.4164761588907</v>
       </c>
       <c r="R13">
-        <v>467.602055098368</v>
+        <v>2640.748285430016</v>
       </c>
       <c r="S13">
-        <v>0.002517902662380413</v>
+        <v>0.01288145326612254</v>
       </c>
       <c r="T13">
-        <v>0.002517902662380413</v>
+        <v>0.01288145326612254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H14">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I14">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J14">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>6.239921998691556</v>
+        <v>44.33953096381156</v>
       </c>
       <c r="R14">
-        <v>56.159297988224</v>
+        <v>399.055778674304</v>
       </c>
       <c r="S14">
-        <v>0.0003024016776235458</v>
+        <v>0.001946576427571978</v>
       </c>
       <c r="T14">
-        <v>0.0003024016776235458</v>
+        <v>0.001946576427571977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H15">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I15">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J15">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>5.108965333219555</v>
+        <v>31.40494984598223</v>
       </c>
       <c r="R15">
-        <v>45.980687998976</v>
+        <v>282.64454861384</v>
       </c>
       <c r="S15">
-        <v>0.0002475927885012173</v>
+        <v>0.00137872759928749</v>
       </c>
       <c r="T15">
-        <v>0.0002475927885012173</v>
+        <v>0.001378727599287489</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H16">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I16">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J16">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N16">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O16">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P16">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q16">
-        <v>7.034142181454222</v>
+        <v>25.44118321257912</v>
       </c>
       <c r="R16">
-        <v>63.307279633088</v>
+        <v>228.970648913212</v>
       </c>
       <c r="S16">
-        <v>0.0003408915042143704</v>
+        <v>0.001116908691965317</v>
       </c>
       <c r="T16">
-        <v>0.0003408915042143704</v>
+        <v>0.001116908691965317</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H17">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I17">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J17">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N17">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O17">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P17">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q17">
-        <v>273.9621727786928</v>
+        <v>220.1763546034027</v>
       </c>
       <c r="R17">
-        <v>2465.659555008235</v>
+        <v>1981.587191430624</v>
       </c>
       <c r="S17">
-        <v>0.01327686799146535</v>
+        <v>0.009666094621738636</v>
       </c>
       <c r="T17">
-        <v>0.01327686799146535</v>
+        <v>0.009666094621738635</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H18">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I18">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J18">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P18">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q18">
-        <v>396.3315641973546</v>
+        <v>252.8601040534187</v>
       </c>
       <c r="R18">
-        <v>3566.984077776191</v>
+        <v>2275.740936480768</v>
       </c>
       <c r="S18">
-        <v>0.01920718398941134</v>
+        <v>0.01110096357188598</v>
       </c>
       <c r="T18">
-        <v>0.01920718398941134</v>
+        <v>0.01110096357188597</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H19">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I19">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J19">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N19">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O19">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P19">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q19">
-        <v>47.59966765162288</v>
+        <v>38.21086859184356</v>
       </c>
       <c r="R19">
-        <v>428.3970088646059</v>
+        <v>343.897817326592</v>
       </c>
       <c r="S19">
-        <v>0.002306794757240924</v>
+        <v>0.001677518333214663</v>
       </c>
       <c r="T19">
-        <v>0.002306794757240923</v>
+        <v>0.001677518333214663</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H20">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I20">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J20">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N20">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O20">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P20">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q20">
-        <v>38.97245061010488</v>
+        <v>27.06412056270223</v>
       </c>
       <c r="R20">
-        <v>350.7520554909439</v>
+        <v>243.57708506432</v>
       </c>
       <c r="S20">
-        <v>0.001888699001056064</v>
+        <v>0.001188158241081075</v>
       </c>
       <c r="T20">
-        <v>0.001888699001056063</v>
+        <v>0.001188158241081075</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H21">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I21">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J21">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N21">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O21">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P21">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q21">
-        <v>53.65817555438854</v>
+        <v>21.92467280157511</v>
       </c>
       <c r="R21">
-        <v>482.9235799894969</v>
+        <v>197.322055214176</v>
       </c>
       <c r="S21">
-        <v>0.002600404670005221</v>
+        <v>0.0009625282525565504</v>
       </c>
       <c r="T21">
-        <v>0.00260040467000522</v>
+        <v>0.0009625282525565503</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H22">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I22">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J22">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N22">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O22">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P22">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q22">
-        <v>407.6773015980061</v>
+        <v>68.39516309809967</v>
       </c>
       <c r="R22">
-        <v>3669.095714382055</v>
+        <v>615.5564678828971</v>
       </c>
       <c r="S22">
-        <v>0.01975702580226616</v>
+        <v>0.003002657207974598</v>
       </c>
       <c r="T22">
-        <v>0.01975702580226616</v>
+        <v>0.003002657207974597</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H23">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I23">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J23">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>375.008064</v>
       </c>
       <c r="O23">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P23">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q23">
-        <v>589.7725988639146</v>
+        <v>78.54798072612266</v>
       </c>
       <c r="R23">
-        <v>5307.953389775232</v>
+        <v>706.9318265351041</v>
       </c>
       <c r="S23">
-        <v>0.02858180332226012</v>
+        <v>0.003448382163528974</v>
       </c>
       <c r="T23">
-        <v>0.02858180332226012</v>
+        <v>0.003448382163528974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H24">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I24">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J24">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N24">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O24">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P24">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q24">
-        <v>70.83205636878621</v>
+        <v>11.86975138255289</v>
       </c>
       <c r="R24">
-        <v>637.488507319076</v>
+        <v>106.827762442976</v>
       </c>
       <c r="S24">
-        <v>0.00343269237659349</v>
+        <v>0.0005211010973768574</v>
       </c>
       <c r="T24">
-        <v>0.00343269237659349</v>
+        <v>0.0005211010973768573</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H25">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I25">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J25">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N25">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O25">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P25">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q25">
-        <v>57.99407757735821</v>
+        <v>8.407146822495557</v>
       </c>
       <c r="R25">
-        <v>521.9466981962239</v>
+        <v>75.66432140246002</v>
       </c>
       <c r="S25">
-        <v>0.00281053294501127</v>
+        <v>0.000369087211165206</v>
       </c>
       <c r="T25">
-        <v>0.002810532945011269</v>
+        <v>0.000369087211165206</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H26">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I26">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J26">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N26">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O26">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P26">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q26">
-        <v>79.84759354480687</v>
+        <v>6.810638566694778</v>
       </c>
       <c r="R26">
-        <v>718.6283419032619</v>
+        <v>61.29574710025301</v>
       </c>
       <c r="S26">
-        <v>0.003869607063552361</v>
+        <v>0.0002989979416214603</v>
       </c>
       <c r="T26">
-        <v>0.003869607063552361</v>
+        <v>0.0002989979416214602</v>
       </c>
     </row>
   </sheetData>
